--- a/statistics assessment/statistics assessment.xlsx
+++ b/statistics assessment/statistics assessment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C927ED-D978-4745-87ED-A9289EBAAEC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F61C19F-AE69-4F9A-B839-BDD896518449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CSV_FILE" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="60">
   <si>
     <t>Question 1. There is an assumption that there is no significant difference between boys and girls with respect to intelligence. Tests are conducted on two groups and the following are the observations</t>
   </si>
@@ -192,6 +192,15 @@
   </si>
   <si>
     <t>Hypothesis rejected</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>standard deviation</t>
+  </si>
+  <si>
+    <t>median</t>
   </si>
 </sst>
 </file>
@@ -257,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -270,8 +279,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -735,18 +742,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:M77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="14.5546875" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" customWidth="1"/>
     <col min="3" max="3" width="17.109375" customWidth="1"/>
     <col min="4" max="4" width="18.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="17.88671875" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
     <col min="9" max="9" width="10.6640625" customWidth="1"/>
@@ -949,12 +956,12 @@
         <v>0.99749687600000003</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:8">
       <c r="B17" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:8">
       <c r="C18" s="1" t="s">
         <v>18</v>
       </c>
@@ -963,7 +970,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:8">
       <c r="C19" s="1" t="s">
         <v>19</v>
       </c>
@@ -972,7 +979,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:8">
       <c r="C20" s="1" t="s">
         <v>20</v>
       </c>
@@ -981,7 +988,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:8">
       <c r="C21" s="1" t="s">
         <v>21</v>
       </c>
@@ -996,7 +1003,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:8">
       <c r="C22" s="1" t="s">
         <v>24</v>
       </c>
@@ -1009,7 +1016,7 @@
         <v>7.0175658374693493</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:8">
       <c r="C23" s="1" t="s">
         <v>25</v>
       </c>
@@ -1017,7 +1024,7 @@
         <v>0.99749687600000003</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:8">
       <c r="C24" s="1" t="s">
         <v>26</v>
       </c>
@@ -1028,140 +1035,128 @@
       <c r="F24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-    </row>
-    <row r="25" spans="1:9">
+    </row>
+    <row r="25" spans="1:8">
       <c r="G25" t="s">
         <v>28</v>
       </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="6"/>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8">
       <c r="C26" s="1"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-    </row>
-    <row r="27" spans="1:9">
+    </row>
+    <row r="27" spans="1:8">
       <c r="C27" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H27" s="6"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="2" t="s">
+    </row>
+    <row r="28" spans="1:8">
+      <c r="C28" s="3"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="B31" s="2" t="s">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="B32" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-    </row>
     <row r="33" spans="1:6">
-      <c r="B33" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="3">
-        <v>220</v>
-      </c>
-      <c r="D33" s="3">
-        <v>230</v>
-      </c>
-      <c r="E33" s="3">
-        <v>450</v>
-      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:6">
       <c r="B34" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C34" s="3">
-        <v>350</v>
+        <v>220</v>
       </c>
       <c r="D34" s="3">
-        <v>640</v>
+        <v>230</v>
       </c>
       <c r="E34" s="3">
-        <v>990</v>
+        <v>450</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="B35" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="3">
+        <v>350</v>
+      </c>
+      <c r="D35" s="3">
+        <v>640</v>
+      </c>
+      <c r="E35" s="3">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="B36" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C36" s="3">
         <v>570</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D36" s="3">
         <v>870</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E36" s="3">
         <v>1440</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="B39" s="2" t="s">
+      <c r="A39" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="B40" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2" t="s">
+      <c r="C40" s="2"/>
+      <c r="D40" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
-      <c r="D41" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
     </row>
@@ -1169,70 +1164,70 @@
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="B43" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
     </row>
-    <row r="45" spans="1:6">
-      <c r="D45">
-        <v>1.78125</v>
-      </c>
+    <row r="44" spans="1:6">
+      <c r="B44" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
     </row>
     <row r="46" spans="1:6">
       <c r="D46">
-        <v>271.875</v>
+        <v>1.78125</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="D47">
-        <v>391.875</v>
+        <v>271.875</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="D48">
+        <v>391.875</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9">
+      <c r="D49">
         <v>598.125</v>
       </c>
     </row>
-    <row r="50" spans="2:10">
-      <c r="B50" s="8" t="s">
+    <row r="51" spans="2:9">
+      <c r="B51" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C51" t="s">
         <v>45</v>
       </c>
-      <c r="D50">
+      <c r="D51">
         <v>41.875</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F51" t="s">
         <v>46</v>
-      </c>
-      <c r="G50">
-        <f>D50*D50</f>
-        <v>1753.515625</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10">
-      <c r="D51">
-        <v>-41.875</v>
       </c>
       <c r="G51">
         <f>D51*D51</f>
         <v>1753.515625</v>
       </c>
     </row>
-    <row r="52" spans="2:10">
+    <row r="52" spans="2:9">
       <c r="D52">
         <v>-41.875</v>
       </c>
@@ -1241,78 +1236,173 @@
         <v>1753.515625</v>
       </c>
     </row>
-    <row r="53" spans="2:10">
+    <row r="53" spans="2:9">
       <c r="D53">
-        <v>41.875</v>
+        <v>-41.875</v>
       </c>
       <c r="G53">
         <f>D53*D53</f>
         <v>1753.515625</v>
       </c>
     </row>
-    <row r="55" spans="2:10">
-      <c r="C55" t="s">
+    <row r="54" spans="2:9">
+      <c r="D54">
+        <v>41.875</v>
+      </c>
+      <c r="G54">
+        <f>D54*D54</f>
+        <v>1753.515625</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9">
+      <c r="C56" t="s">
         <v>39</v>
       </c>
-      <c r="D55">
+      <c r="D56">
         <v>9.8442945999999996</v>
       </c>
     </row>
-    <row r="56" spans="2:10">
-      <c r="D56">
-        <f>G51/D46</f>
-        <v>6.4497126436781613</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10">
+    <row r="57" spans="2:9">
       <c r="D57">
         <f>G52/D47</f>
-        <v>4.4746810207336525</v>
-      </c>
-    </row>
-    <row r="58" spans="2:10">
+        <v>6.4497126436781613</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9">
       <c r="D58">
         <f>G53/D48</f>
+        <v>4.4746810207336525</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9">
+      <c r="D59">
+        <f>G54/D49</f>
         <v>2.931687565308255</v>
       </c>
     </row>
-    <row r="60" spans="2:10">
-      <c r="C60" s="2" t="s">
+    <row r="61" spans="2:9">
+      <c r="C61" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D60">
-        <f>D55+D56+D57+D58</f>
+      <c r="D61">
+        <f>D56+D57+D58+D59</f>
         <v>23.700375829720066</v>
       </c>
-      <c r="G60" s="2" t="s">
+      <c r="G61" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I60">
+      <c r="I61">
         <v>3.8410000000000002</v>
       </c>
     </row>
-    <row r="61" spans="2:10">
-      <c r="C61" s="2" t="s">
+    <row r="62" spans="2:9">
+      <c r="C62" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E62" t="s">
         <v>49</v>
       </c>
-      <c r="I61" t="s">
+      <c r="I62" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="62" spans="2:10">
-      <c r="E62" t="s">
+    <row r="63" spans="2:9">
+      <c r="E63" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="2:10">
-      <c r="H64" s="7" t="s">
+    <row r="65" spans="2:8">
+      <c r="H65" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I64" s="6"/>
-      <c r="J64" s="6"/>
+    </row>
+    <row r="69" spans="2:8">
+      <c r="B69" t="s">
+        <v>57</v>
+      </c>
+      <c r="E69" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8">
+      <c r="B70" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C70">
+        <f>AVERAGE(C34:C36)</f>
+        <v>380</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F70">
+        <f>_xlfn.STDEV.S(C34:C36)</f>
+        <v>176.91806012954132</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8">
+      <c r="B71" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C71">
+        <f>AVERAGE(D34:D36)</f>
+        <v>580</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F71">
+        <f>_xlfn.STDEV.S(D34:D36)</f>
+        <v>324.19130154894657</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8">
+      <c r="B72" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C72">
+        <f>AVERAGE(E34:E36)</f>
+        <v>960</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F72">
+        <f>_xlfn.STDEV.S(E34:E36)</f>
+        <v>495.68134925574918</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8">
+      <c r="B74" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8">
+      <c r="B75" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C75">
+        <f>MEDIAN(C34:C36)</f>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8">
+      <c r="B76" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C76">
+        <f>MEDIAN(D34:D36)</f>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8">
+      <c r="B77" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C77">
+        <f>MEDIAN(E34:E36)</f>
+        <v>990</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
